--- a/Supplementary_Material FOAI.xlsx
+++ b/Supplementary_Material FOAI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105E3A73-BDD1-472A-AA1F-DE6539880059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF6D9F-A22D-45EC-AF5F-A61ECC24491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,21 +187,30 @@
       <color rgb="FF0D0D0D"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0D0D0D"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -209,36 +218,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF0D0D0D"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,38 +319,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -411,7 +395,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$8</c:f>
+              <c:f>Лист1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -444,7 +428,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Лист1!$C$9:$F$17</c:f>
+              <c:f>Лист1!$B$3:$E$11</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -568,7 +552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$9:$G$17</c:f>
+              <c:f>Лист1!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -613,7 +597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$8</c:f>
+              <c:f>Лист1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -646,7 +630,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Лист1!$C$9:$F$17</c:f>
+              <c:f>Лист1!$B$3:$E$11</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -770,7 +754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$H$9:$H$17</c:f>
+              <c:f>Лист1!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -902,7 +886,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$46</c:f>
+              <c:f>Лист1!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -935,7 +919,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$E$47:$E$55</c:f>
+              <c:f>Лист1!$B$38:$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -970,7 +954,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$47:$F$55</c:f>
+              <c:f>Лист1!$C$38:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1102,7 +1086,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$61</c:f>
+              <c:f>Лист1!$C$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1135,7 +1119,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$E$62:$E$70</c:f>
+              <c:f>Лист1!$B$55:$B$63</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1170,7 +1154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$62:$F$70</c:f>
+              <c:f>Лист1!$C$55:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1278,15 +1262,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>382586</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>592136</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1313,16 +1297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1349,16 +1333,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7936</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1673,393 +1657,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C8:L72"/>
+  <dimension ref="B2:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="3:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="C8" s="4" t="s">
+    <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="C9" s="5" t="s">
+    <row r="3" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5">
+      <c r="F3" s="3">
         <v>1.2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="G3" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="C10" s="5" t="s">
+    <row r="4" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="F4" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="G4" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="C11" s="5" t="s">
+    <row r="5" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="5">
+      <c r="F5" s="3">
         <v>1.3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="G5" s="3">
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C12" s="8" t="s">
+    <row r="6" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="9">
+      <c r="F6" s="3">
         <v>1.6</v>
       </c>
-      <c r="H12" s="8">
+      <c r="G6" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="8" t="s">
+    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="9">
+      <c r="F7" s="3">
         <v>1.5</v>
       </c>
-      <c r="H13" s="8">
+      <c r="G7" s="3">
         <v>0.82</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="8" t="s">
+    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="10">
+      <c r="F8" s="3">
         <v>1.7</v>
       </c>
-      <c r="H14" s="8">
+      <c r="G8" s="3">
         <v>0.78</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C15" s="8" t="s">
+    <row r="9" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="10">
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="G9" s="3">
         <v>0.85</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="8" t="s">
+    <row r="10" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="10">
+      <c r="F10" s="3">
         <v>2.1</v>
       </c>
-      <c r="H16" s="8">
+      <c r="G10" s="3">
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="8" t="s">
+    <row r="11" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="10">
+      <c r="F11" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H17" s="8">
+      <c r="G11" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="F41" s="11" t="s">
+    <row r="24" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="9:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="5:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E46" s="12" t="s">
+    <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E47" s="1" t="s">
+    <row r="38" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="2">
+      <c r="C38" s="9">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E48" s="1" t="s">
+    <row r="39" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="13">
+      <c r="C39" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E49" s="1" t="s">
+    <row r="40" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="13">
+      <c r="C40" s="10">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="50" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E50" s="1" t="s">
+    <row r="41" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="2">
+      <c r="C41" s="9">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="51" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E51" s="1" t="s">
+    <row r="42" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="2">
+      <c r="C42" s="9">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="52" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E52" s="1" t="s">
+    <row r="43" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="2">
+      <c r="C43" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E53" s="1" t="s">
+    <row r="44" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="13">
+      <c r="C44" s="10">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E54" s="1" t="s">
+    <row r="45" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="13">
+      <c r="C45" s="10">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="55" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E55" s="1" t="s">
+    <row r="46" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="13">
+      <c r="C46" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L55" s="11" t="s">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="5:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E61" s="12" t="s">
+    <row r="53" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="2:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="C54" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E62" s="1" t="s">
+    <row r="55" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="13">
+      <c r="C55" s="10">
         <v>0.99</v>
       </c>
     </row>
-    <row r="63" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E63" s="1" t="s">
+    <row r="56" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="13">
+      <c r="C56" s="10">
         <v>0.995</v>
       </c>
     </row>
-    <row r="64" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E64" s="1" t="s">
+    <row r="57" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="13">
+      <c r="C57" s="10">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="65" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E65" s="1" t="s">
+    <row r="58" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="2">
+      <c r="C58" s="9">
         <v>0.98</v>
       </c>
     </row>
-    <row r="66" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E66" s="1" t="s">
+    <row r="59" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="2">
+      <c r="C59" s="9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="67" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E67" s="1" t="s">
+    <row r="60" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F67" s="2">
+      <c r="C60" s="9">
         <v>0.97</v>
       </c>
     </row>
-    <row r="68" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E68" s="1" t="s">
+    <row r="61" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="13">
+      <c r="C61" s="10">
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="69" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E69" s="1" t="s">
+    <row r="62" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="13">
+      <c r="C62" s="10">
         <v>0.98</v>
       </c>
     </row>
-    <row r="70" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E70" s="1" t="s">
+    <row r="63" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F70" s="13">
+      <c r="C63" s="10">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="72" spans="5:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I72" s="14" t="s">
+    <row r="67" spans="9:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="I67" s="11" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Supplementary_Material FOAI.xlsx
+++ b/Supplementary_Material FOAI.xlsx
@@ -3,14 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF6D9F-A22D-45EC-AF5F-A61ECC24491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF3AF9-F19E-4F86-8076-AD621785DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -395,7 +393,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$2</c:f>
+              <c:f>Main!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -428,7 +426,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Лист1!$B$3:$E$11</c:f>
+              <c:f>Main!$B$3:$E$11</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -552,7 +550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$11</c:f>
+              <c:f>Main!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -597,7 +595,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$2</c:f>
+              <c:f>Main!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -630,7 +628,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Лист1!$B$3:$E$11</c:f>
+              <c:f>Main!$B$3:$E$11</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -754,7 +752,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$3:$G$11</c:f>
+              <c:f>Main!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -886,7 +884,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$37</c:f>
+              <c:f>Main!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -919,7 +917,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$38:$B$46</c:f>
+              <c:f>Main!$B$38:$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -954,7 +952,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$38:$C$46</c:f>
+              <c:f>Main!$C$38:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1086,7 +1084,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$54</c:f>
+              <c:f>Main!$C$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1119,7 +1117,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$55:$B$63</c:f>
+              <c:f>Main!$B$55:$B$63</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1154,7 +1152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$55:$C$63</c:f>
+              <c:f>Main!$C$55:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1659,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
@@ -2055,28 +2053,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>